--- a/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.50994803965784</v>
+        <v>96.67485019520427</v>
       </c>
       <c r="D2" t="n">
-        <v>21.74574276303392</v>
+        <v>19.76283745484764</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.33008557831864</v>
+        <v>89.62000350827222</v>
       </c>
       <c r="D3" t="n">
-        <v>21.63827629851505</v>
+        <v>20.30523321436917</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.77652792401936</v>
+        <v>89.25029449350151</v>
       </c>
       <c r="D4" t="n">
-        <v>22.39466914363769</v>
+        <v>18.73651986710884</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.02076636821644</v>
+        <v>88.214697003605</v>
       </c>
       <c r="D5" t="n">
-        <v>18.38010730360064</v>
+        <v>17.89475462228855</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.9614196204744</v>
+        <v>86.61245822752132</v>
       </c>
       <c r="D6" t="n">
-        <v>19.15209181805377</v>
+        <v>20.48081707624497</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>91.23997771566813</v>
+        <v>88.59740428455574</v>
       </c>
       <c r="D7" t="n">
-        <v>19.71608142288089</v>
+        <v>18.01075499355769</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.78391924617067</v>
+        <v>85.10921989937287</v>
       </c>
       <c r="D8" t="n">
-        <v>19.50990305127401</v>
+        <v>19.57522895973368</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.73663891081428</v>
+        <v>86.08540666344608</v>
       </c>
       <c r="D9" t="n">
-        <v>19.12417900049567</v>
+        <v>18.37401917873435</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.66040421321313</v>
+        <v>82.83304111079977</v>
       </c>
       <c r="D10" t="n">
-        <v>19.13763175929319</v>
+        <v>17.66480207562132</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.61754415037609</v>
+        <v>83.40892490039344</v>
       </c>
       <c r="D11" t="n">
-        <v>17.22961954975523</v>
+        <v>19.62015520459813</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.40556152187308</v>
+        <v>84.45366210277805</v>
       </c>
       <c r="D12" t="n">
-        <v>18.62822100713855</v>
+        <v>17.75977845829623</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.88395619453422</v>
+        <v>81.33347851959127</v>
       </c>
       <c r="D13" t="n">
-        <v>16.35644731411764</v>
+        <v>19.02379301146302</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.94516644711413</v>
+        <v>78.45971145980357</v>
       </c>
       <c r="D14" t="n">
-        <v>21.61075825833751</v>
+        <v>18.47585271539335</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.48579257683849</v>
+        <v>79.38477585962848</v>
       </c>
       <c r="D15" t="n">
-        <v>19.67663367822828</v>
+        <v>20.28060577122526</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.26752109366754</v>
+        <v>77.83212928386686</v>
       </c>
       <c r="D16" t="n">
-        <v>20.05148513656912</v>
+        <v>14.86180475743871</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.55943146774889</v>
+        <v>74.60537443742651</v>
       </c>
       <c r="D17" t="n">
-        <v>20.95471234994509</v>
+        <v>18.76522100643805</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.9305683864838</v>
+        <v>76.83032899872231</v>
       </c>
       <c r="D18" t="n">
-        <v>20.28083789012598</v>
+        <v>18.08785750159261</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.19506186672021</v>
+        <v>74.81369356916829</v>
       </c>
       <c r="D19" t="n">
-        <v>19.32237085356329</v>
+        <v>17.35057442131732</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>76.02524738432511</v>
+        <v>70.23430782410519</v>
       </c>
       <c r="D20" t="n">
-        <v>19.06584646378558</v>
+        <v>19.45510871155584</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.87376769541719</v>
+        <v>69.93230087630515</v>
       </c>
       <c r="D21" t="n">
-        <v>19.30921274969277</v>
+        <v>19.66166330132951</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.45299305150233</v>
+        <v>69.68778387589907</v>
       </c>
       <c r="D22" t="n">
-        <v>19.47735579553353</v>
+        <v>18.97334235210378</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.78539029026655</v>
+        <v>68.15928026329783</v>
       </c>
       <c r="D23" t="n">
-        <v>21.17470383505017</v>
+        <v>17.930878794862</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>71.31999942974352</v>
+        <v>70.0971095976812</v>
       </c>
       <c r="D24" t="n">
-        <v>19.56007698122062</v>
+        <v>17.47955566690533</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.64247240005993</v>
+        <v>67.3841817420266</v>
       </c>
       <c r="D25" t="n">
-        <v>19.3551427801085</v>
+        <v>18.34141199625359</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.0219722858304</v>
+        <v>68.8730546947462</v>
       </c>
       <c r="D26" t="n">
-        <v>20.42972451519913</v>
+        <v>17.80761979649338</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>69.16722081690014</v>
+        <v>65.73782914068954</v>
       </c>
       <c r="D27" t="n">
-        <v>17.7014162390103</v>
+        <v>19.39190970131924</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.72063390684984</v>
+        <v>65.6543123756942</v>
       </c>
       <c r="D28" t="n">
-        <v>18.89680976361875</v>
+        <v>17.50162270211797</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.86160556276911</v>
+        <v>64.39360972126107</v>
       </c>
       <c r="D29" t="n">
-        <v>18.00300474288276</v>
+        <v>18.23619267934723</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.23849977141309</v>
+        <v>62.94451034709195</v>
       </c>
       <c r="D30" t="n">
-        <v>19.21913701862971</v>
+        <v>18.96925992289944</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.76199814661521</v>
+        <v>61.70617053419828</v>
       </c>
       <c r="D31" t="n">
-        <v>20.3064681937615</v>
+        <v>17.00510857075098</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.38740032023514</v>
+        <v>58.17242649068742</v>
       </c>
       <c r="D32" t="n">
-        <v>20.59116237902241</v>
+        <v>18.91230504747993</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.6882601621684</v>
+        <v>57.78536582089994</v>
       </c>
       <c r="D33" t="n">
-        <v>17.65499664675034</v>
+        <v>19.24365649985897</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.0915205009658</v>
+        <v>60.43906767805138</v>
       </c>
       <c r="D34" t="n">
-        <v>18.44318265742939</v>
+        <v>21.60265817018042</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.81229309767036</v>
+        <v>58.68443459658961</v>
       </c>
       <c r="D35" t="n">
-        <v>19.07140791009621</v>
+        <v>18.15261721525671</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.05919203323504</v>
+        <v>55.88552692375704</v>
       </c>
       <c r="D36" t="n">
-        <v>19.82340018600808</v>
+        <v>15.80606073427776</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.42197383375764</v>
+        <v>56.10386347886293</v>
       </c>
       <c r="D37" t="n">
-        <v>20.38061788828436</v>
+        <v>19.08143344447412</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.78714245298634</v>
+        <v>54.8546849274275</v>
       </c>
       <c r="D38" t="n">
-        <v>22.082703751069</v>
+        <v>18.00329363547453</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.6908120728778</v>
+        <v>52.67248018009215</v>
       </c>
       <c r="D39" t="n">
-        <v>18.63680290460175</v>
+        <v>17.49879087868925</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.89101697447108</v>
+        <v>55.99377559539795</v>
       </c>
       <c r="D40" t="n">
-        <v>20.62918601626881</v>
+        <v>17.73006287921062</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.58837948869217</v>
+        <v>49.55285358882824</v>
       </c>
       <c r="D41" t="n">
-        <v>17.41463331063084</v>
+        <v>16.26945599127768</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.48309548688982</v>
+        <v>46.53256970257008</v>
       </c>
       <c r="D42" t="n">
-        <v>16.35703135147579</v>
+        <v>20.65360570028694</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9188432114872</v>
+        <v>49.96056105576292</v>
       </c>
       <c r="D43" t="n">
-        <v>18.0824147747813</v>
+        <v>17.48489430831785</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.5495715061919</v>
+        <v>47.16812479226276</v>
       </c>
       <c r="D44" t="n">
-        <v>16.45726651176524</v>
+        <v>18.14059682153388</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>43.9267444342056</v>
+        <v>47.29219118775894</v>
       </c>
       <c r="D45" t="n">
-        <v>18.32359358805081</v>
+        <v>17.24257476772669</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.90261357531508</v>
+        <v>48.03543798420784</v>
       </c>
       <c r="D46" t="n">
-        <v>16.4921099164871</v>
+        <v>17.37218424469861</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.08568205986499</v>
+        <v>42.90932441650715</v>
       </c>
       <c r="D47" t="n">
-        <v>15.51217256572495</v>
+        <v>17.85874159562324</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.4206732881385</v>
+        <v>43.99404556838541</v>
       </c>
       <c r="D48" t="n">
-        <v>21.20808828216455</v>
+        <v>20.63663490815808</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.31028067621978</v>
+        <v>43.27718201024988</v>
       </c>
       <c r="D49" t="n">
-        <v>18.99254423770695</v>
+        <v>16.24013913776432</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.08592476921059</v>
+        <v>42.27499888861313</v>
       </c>
       <c r="D50" t="n">
-        <v>17.75948894640826</v>
+        <v>17.95539455442454</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>44.10064267675041</v>
+        <v>42.73030162807374</v>
       </c>
       <c r="D51" t="n">
-        <v>20.01850026268885</v>
+        <v>20.55823796867034</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>43.60612975209609</v>
+        <v>40.69373397934034</v>
       </c>
       <c r="D52" t="n">
-        <v>19.19031582584846</v>
+        <v>19.3184170449361</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.57745979265</v>
+        <v>37.61804926673994</v>
       </c>
       <c r="D53" t="n">
-        <v>19.29353309288585</v>
+        <v>16.15258713331077</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>35.26224117485211</v>
+        <v>37.30942152203231</v>
       </c>
       <c r="D54" t="n">
-        <v>19.26583181648652</v>
+        <v>19.97267362236193</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.11457674080794</v>
+        <v>36.20797054214609</v>
       </c>
       <c r="D55" t="n">
-        <v>17.70951430262299</v>
+        <v>17.95996771576745</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.98289048900324</v>
+        <v>38.68995586754017</v>
       </c>
       <c r="D56" t="n">
-        <v>19.7217640734362</v>
+        <v>19.09718848502953</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.86714887176581</v>
+        <v>35.01807356130804</v>
       </c>
       <c r="D57" t="n">
-        <v>19.37822039068092</v>
+        <v>17.51082170398675</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.04554652191415</v>
+        <v>33.78721337832815</v>
       </c>
       <c r="D58" t="n">
-        <v>17.33455740943382</v>
+        <v>18.5168793262377</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.79393282194516</v>
+        <v>33.38199375941377</v>
       </c>
       <c r="D59" t="n">
-        <v>20.1344582842842</v>
+        <v>18.68209890206007</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.30849600452904</v>
+        <v>34.87481509094537</v>
       </c>
       <c r="D60" t="n">
-        <v>18.08223278867981</v>
+        <v>15.86596677875236</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.2708876630278</v>
+        <v>29.39804445596809</v>
       </c>
       <c r="D61" t="n">
-        <v>21.79576036096553</v>
+        <v>16.89639721283519</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.58351519349486</v>
+        <v>29.21263646661823</v>
       </c>
       <c r="D62" t="n">
-        <v>18.34065943924165</v>
+        <v>17.63591080619002</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.64764010245538</v>
+        <v>29.80561510052714</v>
       </c>
       <c r="D63" t="n">
-        <v>18.58599364312278</v>
+        <v>18.11144548255573</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.91087883962084</v>
+        <v>30.80103808308318</v>
       </c>
       <c r="D64" t="n">
-        <v>18.54361857995913</v>
+        <v>18.26446817169669</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.18041323944082</v>
+        <v>31.85920727218151</v>
       </c>
       <c r="D65" t="n">
-        <v>20.51553679772738</v>
+        <v>19.42525244645355</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.66209437706736</v>
+        <v>29.39806613472571</v>
       </c>
       <c r="D66" t="n">
-        <v>19.91168732906564</v>
+        <v>19.52502595923065</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>27.9416143667372</v>
+        <v>26.67021932398724</v>
       </c>
       <c r="D67" t="n">
-        <v>18.88279639839943</v>
+        <v>20.15015557227267</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.70623862895633</v>
+        <v>24.97322350916362</v>
       </c>
       <c r="D68" t="n">
-        <v>19.10792181847567</v>
+        <v>19.21848480809615</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.39339986715207</v>
+        <v>25.96194111683096</v>
       </c>
       <c r="D69" t="n">
-        <v>17.36616075386565</v>
+        <v>17.49105918578238</v>
       </c>
     </row>
   </sheetData>
